--- a/listings.xlsx
+++ b/listings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED91EA8-7B00-44E4-B23F-D2CC44C1824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D346F-594C-4E6C-8B28-440DBEE7613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Exchange</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>22nd Century</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>Consumer Non-Durables</t>
@@ -985,7 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1031,14 +1030,14 @@
       <c r="E2">
         <v>120.628</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>2019</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1046,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1061,10 +1060,10 @@
         <v>1986</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1072,10 +1071,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>6.15</v>
@@ -1083,14 +1082,14 @@
       <c r="E4">
         <v>139.86500000000001</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>2019</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1098,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>7.22</v>
@@ -1109,14 +1108,14 @@
       <c r="E5">
         <v>67.563000000000002</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>2019</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1124,10 +1123,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6">
         <v>13.36</v>
@@ -1135,25 +1134,25 @@
       <c r="E6">
         <v>128.84299999999999</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6">
+        <v>2019</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7">
         <v>25.3</v>
@@ -1161,25 +1160,25 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="F7">
+        <v>2019</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>28.86</v>
@@ -1187,25 +1186,25 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
+      <c r="F8">
+        <v>2019</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9">
         <v>17.07</v>
@@ -1217,21 +1216,21 @@
         <v>2014</v>
       </c>
       <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10">
         <v>53.1</v>
@@ -1243,21 +1242,21 @@
         <v>2013</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11">
         <v>12.63</v>
@@ -1269,10 +1268,10 @@
         <v>2016</v>
       </c>
       <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/listings.xlsx
+++ b/listings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\WEB\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D346F-594C-4E6C-8B28-440DBEE7613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127027FA-CB1B-4547-AA3A-F673F5623AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nyse" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Exchange</t>
   </si>
@@ -980,297 +980,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>120.628</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2019</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1266.3330000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1986</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6.15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>139.86500000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2019</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.22</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>67.563000000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2019</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13.36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>128.84299999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2019</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>25.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2019</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28.86</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2019</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>17.07</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>332.55599999999998</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2014</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>53.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>26105.442999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2013</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12.63</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>9237.6630000000005</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2016</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>39</v>
       </c>
     </row>

--- a/listings.xlsx
+++ b/listings.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\WEB\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127027FA-CB1B-4547-AA3A-F673F5623AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228DFAA-267A-41DD-B425-418CC6B4DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nyse" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nyse!$A$1:$I$110</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="144">
   <si>
     <t>Exchange</t>
   </si>
@@ -140,13 +143,325 @@
   </si>
   <si>
     <t>Trucking Freight/Courier Services</t>
+  </si>
+  <si>
+    <t>23rd Century</t>
+  </si>
+  <si>
+    <t>24th Century</t>
+  </si>
+  <si>
+    <t>25th Century</t>
+  </si>
+  <si>
+    <t>26th Century</t>
+  </si>
+  <si>
+    <t>27th Century</t>
+  </si>
+  <si>
+    <t>ABE1</t>
+  </si>
+  <si>
+    <t>ABE2</t>
+  </si>
+  <si>
+    <t>ABE3</t>
+  </si>
+  <si>
+    <t>ABE4</t>
+  </si>
+  <si>
+    <t>ABE5</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>CH5</t>
+  </si>
+  <si>
+    <t>FAX1</t>
+  </si>
+  <si>
+    <t>FAX2</t>
+  </si>
+  <si>
+    <t>FAX3</t>
+  </si>
+  <si>
+    <t>FAX4</t>
+  </si>
+  <si>
+    <t>FAX5</t>
+  </si>
+  <si>
+    <t>IAF1</t>
+  </si>
+  <si>
+    <t>IAF2</t>
+  </si>
+  <si>
+    <t>IAF3</t>
+  </si>
+  <si>
+    <t>IAF4</t>
+  </si>
+  <si>
+    <t>IAF5</t>
+  </si>
+  <si>
+    <t>XXII1</t>
+  </si>
+  <si>
+    <t>XXII2</t>
+  </si>
+  <si>
+    <t>XXII3</t>
+  </si>
+  <si>
+    <t>XXII4</t>
+  </si>
+  <si>
+    <t>XXII5</t>
+  </si>
+  <si>
+    <t>ZB^H1</t>
+  </si>
+  <si>
+    <t>ZB^H2</t>
+  </si>
+  <si>
+    <t>ZB^H3</t>
+  </si>
+  <si>
+    <t>ZB^H4</t>
+  </si>
+  <si>
+    <t>ZB^H5</t>
+  </si>
+  <si>
+    <t>ZBK1</t>
+  </si>
+  <si>
+    <t>ZBK2</t>
+  </si>
+  <si>
+    <t>ZBK3</t>
+  </si>
+  <si>
+    <t>ZBK4</t>
+  </si>
+  <si>
+    <t>ZBK5</t>
+  </si>
+  <si>
+    <t>ZBK6</t>
+  </si>
+  <si>
+    <t>ZBK7</t>
+  </si>
+  <si>
+    <t>ZBK8</t>
+  </si>
+  <si>
+    <t>ZBK9</t>
+  </si>
+  <si>
+    <t>ZBK10</t>
+  </si>
+  <si>
+    <t>ZBK11</t>
+  </si>
+  <si>
+    <t>ZBK12</t>
+  </si>
+  <si>
+    <t>ZBK13</t>
+  </si>
+  <si>
+    <t>ZBK14</t>
+  </si>
+  <si>
+    <t>ZBK15</t>
+  </si>
+  <si>
+    <t>ZBK16</t>
+  </si>
+  <si>
+    <t>ZBK17</t>
+  </si>
+  <si>
+    <t>ZBK18</t>
+  </si>
+  <si>
+    <t>ZBK19</t>
+  </si>
+  <si>
+    <t>ZBK20</t>
+  </si>
+  <si>
+    <t>ZOES1</t>
+  </si>
+  <si>
+    <t>ZOES2</t>
+  </si>
+  <si>
+    <t>ZOES3</t>
+  </si>
+  <si>
+    <t>ZOES4</t>
+  </si>
+  <si>
+    <t>ZOES5</t>
+  </si>
+  <si>
+    <t>ZOES6</t>
+  </si>
+  <si>
+    <t>ZOES7</t>
+  </si>
+  <si>
+    <t>ZOES8</t>
+  </si>
+  <si>
+    <t>ZOES9</t>
+  </si>
+  <si>
+    <t>ZOES10</t>
+  </si>
+  <si>
+    <t>ZOES11</t>
+  </si>
+  <si>
+    <t>ZOES12</t>
+  </si>
+  <si>
+    <t>ZOES13</t>
+  </si>
+  <si>
+    <t>ZOES14</t>
+  </si>
+  <si>
+    <t>ZOES15</t>
+  </si>
+  <si>
+    <t>ZOES16</t>
+  </si>
+  <si>
+    <t>ZOES17</t>
+  </si>
+  <si>
+    <t>ZOES18</t>
+  </si>
+  <si>
+    <t>ZOES19</t>
+  </si>
+  <si>
+    <t>ZOES20</t>
+  </si>
+  <si>
+    <t>ZTO1</t>
+  </si>
+  <si>
+    <t>ZTO2</t>
+  </si>
+  <si>
+    <t>ZTO3</t>
+  </si>
+  <si>
+    <t>ZTO4</t>
+  </si>
+  <si>
+    <t>ZTO5</t>
+  </si>
+  <si>
+    <t>ZTO6</t>
+  </si>
+  <si>
+    <t>ZTO7</t>
+  </si>
+  <si>
+    <t>ZTO8</t>
+  </si>
+  <si>
+    <t>ZTO9</t>
+  </si>
+  <si>
+    <t>ZTO10</t>
+  </si>
+  <si>
+    <t>ZTO11</t>
+  </si>
+  <si>
+    <t>ZTO12</t>
+  </si>
+  <si>
+    <t>ZTO13</t>
+  </si>
+  <si>
+    <t>ZTO14</t>
+  </si>
+  <si>
+    <t>ZTS1</t>
+  </si>
+  <si>
+    <t>ZTS2</t>
+  </si>
+  <si>
+    <t>ZTS3</t>
+  </si>
+  <si>
+    <t>ZTS4</t>
+  </si>
+  <si>
+    <t>ZTS5</t>
+  </si>
+  <si>
+    <t>ZTS6</t>
+  </si>
+  <si>
+    <t>ZTS7</t>
+  </si>
+  <si>
+    <t>ZTS8</t>
+  </si>
+  <si>
+    <t>ZTS9</t>
+  </si>
+  <si>
+    <t>ZTS10</t>
+  </si>
+  <si>
+    <t>ZTS11</t>
+  </si>
+  <si>
+    <t>ZTS12</t>
+  </si>
+  <si>
+    <t>ZTS13</t>
+  </si>
+  <si>
+    <t>ZTS14</t>
+  </si>
+  <si>
+    <t>ZTS15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +592,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,8 +944,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -980,11 +1302,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -1002,7 +1329,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -1031,7 +1358,7 @@
       <c r="F2">
         <v>120.628</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
@@ -1060,7 +1387,7 @@
       <c r="F3">
         <v>1266.3330000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1986</v>
       </c>
       <c r="H3" t="s">
@@ -1089,7 +1416,7 @@
       <c r="F4">
         <v>139.86500000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2019</v>
       </c>
       <c r="H4" t="s">
@@ -1118,7 +1445,7 @@
       <c r="F5">
         <v>67.563000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2019</v>
       </c>
       <c r="H5" t="s">
@@ -1129,8 +1456,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
+      <c r="A6" t="str">
+        <f>C6</f>
+        <v>ABE</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1147,7 +1475,7 @@
       <c r="F6">
         <v>128.84299999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>2019</v>
       </c>
       <c r="H6" t="s">
@@ -1176,7 +1504,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2019</v>
       </c>
       <c r="H7" t="s">
@@ -1205,7 +1533,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2019</v>
       </c>
       <c r="H8" t="s">
@@ -1234,7 +1562,7 @@
       <c r="F9">
         <v>332.55599999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2014</v>
       </c>
       <c r="H9" t="s">
@@ -1263,7 +1591,7 @@
       <c r="F10">
         <v>26105.442999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>2013</v>
       </c>
       <c r="H10" t="s">
@@ -1292,7 +1620,7 @@
       <c r="F11">
         <v>9237.6630000000005</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>2016</v>
       </c>
       <c r="H11" t="s">
@@ -1302,7 +1630,2979 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f t="shared" ref="A12:A43" si="0">C12</f>
+        <v>ZBK1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>24.75</v>
+      </c>
+      <c r="F12">
+        <v>22290.3845</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>23.484000000000002</v>
+      </c>
+      <c r="F13">
+        <v>27638.972099999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTS1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>22.218</v>
+      </c>
+      <c r="F14">
+        <v>32987.559699999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTO1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>20.952000000000002</v>
+      </c>
+      <c r="F15">
+        <v>38336.147299999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>19.686</v>
+      </c>
+      <c r="F16">
+        <v>43684.734900000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="F17">
+        <v>49033.322500000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTS2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>17.154</v>
+      </c>
+      <c r="F18">
+        <v>54381.910100000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2007</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTO2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>15.888</v>
+      </c>
+      <c r="F19">
+        <v>59730.4977</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>14.622</v>
+      </c>
+      <c r="F20">
+        <v>65079.085299999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>13.356</v>
+      </c>
+      <c r="F21">
+        <v>70427.672900000005</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>XXII1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>22.4964736842105</v>
+      </c>
+      <c r="F22">
+        <v>67688.852934210605</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>FAX1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>22.922090225563899</v>
+      </c>
+      <c r="F23">
+        <v>71749.747589849707</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>IAF1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>23.347706766917302</v>
+      </c>
+      <c r="F24">
+        <v>75810.642245488794</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>CH1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>23.773323308270701</v>
+      </c>
+      <c r="F25">
+        <v>79871.536901127896</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>ABE1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>24.198939849624001</v>
+      </c>
+      <c r="F26">
+        <v>83932.431556766998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>ZB^H1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>24.6245563909774</v>
+      </c>
+      <c r="F27">
+        <v>87993.326212405605</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>25.050172932330799</v>
+      </c>
+      <c r="F28">
+        <v>92054.220868045595</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>25.475789473684301</v>
+      </c>
+      <c r="F29">
+        <v>96115.115523684595</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTS3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>25.901406015037601</v>
+      </c>
+      <c r="F30">
+        <v>100176.010179324</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTO3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>26.327022556391</v>
+      </c>
+      <c r="F31">
+        <v>104236.904834963</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>26.7526390977443</v>
+      </c>
+      <c r="F32">
+        <v>108297.799490602</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>27.178255639097699</v>
+      </c>
+      <c r="F33">
+        <v>112358.694146241</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTS4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>27.603872180451098</v>
+      </c>
+      <c r="F34">
+        <v>116419.58880188</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTO4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>28.029488721804501</v>
+      </c>
+      <c r="F35">
+        <v>120480.483457519</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>28.455105263157801</v>
+      </c>
+      <c r="F36">
+        <v>124541.378113158</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>28.8807218045112</v>
+      </c>
+      <c r="F37">
+        <v>128602.272768797</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTS5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>29.306338345864599</v>
+      </c>
+      <c r="F38">
+        <v>132663.16742443701</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>ZTO5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>29.731954887218102</v>
+      </c>
+      <c r="F39">
+        <v>136724.06208007599</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1998</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>ZBK7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>30.157571428571501</v>
+      </c>
+      <c r="F40">
+        <v>140784.95673571501</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1998</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>ZOES7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>30.5831879699249</v>
+      </c>
+      <c r="F41">
+        <v>144845.85139135399</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1997</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>XXII2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>31.0088045112782</v>
+      </c>
+      <c r="F42">
+        <v>148906.74604699301</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1997</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAX2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>31.4344210526315</v>
+      </c>
+      <c r="F43">
+        <v>152967.64070263199</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1997</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f t="shared" ref="A44:A75" si="1">C44</f>
+        <v>IAF2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>31.860037593984899</v>
+      </c>
+      <c r="F44">
+        <v>157028.53535827101</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1996</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>CH2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>32.285654135338298</v>
+      </c>
+      <c r="F45">
+        <v>161089.43001390999</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1996</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>ABE2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>32.711270676691797</v>
+      </c>
+      <c r="F46">
+        <v>165150.32466954901</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1995</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>ZB^H2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>33.136887218045104</v>
+      </c>
+      <c r="F47">
+        <v>169211.21932518799</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1995</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>33.562503759398602</v>
+      </c>
+      <c r="F48">
+        <v>173272.113980828</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1994</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>33.988120300751802</v>
+      </c>
+      <c r="F49">
+        <v>177333.00863646701</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1994</v>
+      </c>
+      <c r="H49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTS6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>34.413736842105301</v>
+      </c>
+      <c r="F50">
+        <v>181393.903292106</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1993</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTO6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>34.8393533834587</v>
+      </c>
+      <c r="F51">
+        <v>185454.79794774501</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1993</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>35.264969924812</v>
+      </c>
+      <c r="F52">
+        <v>189515.692603384</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1992</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53">
+        <v>35.690586466165399</v>
+      </c>
+      <c r="F53">
+        <v>193576.58725902301</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1992</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTS7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>36.116203007518799</v>
+      </c>
+      <c r="F54">
+        <v>197637.481914662</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1991</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTO7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>36.541819548872098</v>
+      </c>
+      <c r="F55">
+        <v>201698.37657030101</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1991</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>36.967436090225497</v>
+      </c>
+      <c r="F56">
+        <v>205759.27122594</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1991</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
+        <v>37.393052631579003</v>
+      </c>
+      <c r="F57">
+        <v>209820.16588157901</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1990</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTS8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>37.818669172932303</v>
+      </c>
+      <c r="F58">
+        <v>213881.06053721899</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1990</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTO8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>38.244285714285802</v>
+      </c>
+      <c r="F59">
+        <v>217941.955192858</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1989</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>38.669902255639201</v>
+      </c>
+      <c r="F60">
+        <v>222002.84984849699</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1989</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>39.095518796992501</v>
+      </c>
+      <c r="F61">
+        <v>226063.744504136</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1988</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>XXII3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62">
+        <v>39.5211353383459</v>
+      </c>
+      <c r="F62">
+        <v>230124.63915977499</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1988</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>FAX3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>39.9467518796992</v>
+      </c>
+      <c r="F63">
+        <v>234185.533815414</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1987</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>IAF3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>40.372368421052599</v>
+      </c>
+      <c r="F64">
+        <v>238246.42847105299</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1987</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>CH3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>40.797984962405998</v>
+      </c>
+      <c r="F65">
+        <v>242307.323126692</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1986</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v>ABE3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>41.223601503759497</v>
+      </c>
+      <c r="F66">
+        <v>246368.21778233099</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1986</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>ZB^H3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67">
+        <v>41.649218045112697</v>
+      </c>
+      <c r="F67">
+        <v>250429.11243797</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1986</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68">
+        <v>42.074834586466203</v>
+      </c>
+      <c r="F68">
+        <v>254490.00709360899</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1985</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>42.500451127819503</v>
+      </c>
+      <c r="F69">
+        <v>258550.90174924899</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1985</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTS9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70">
+        <v>42.926067669173001</v>
+      </c>
+      <c r="F70">
+        <v>262611.79640488798</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1984</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTO9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>43.3516842105264</v>
+      </c>
+      <c r="F71">
+        <v>266672.69106052699</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1984</v>
+      </c>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>ZBK13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>43.7773007518797</v>
+      </c>
+      <c r="F72">
+        <v>270733.58571616601</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1983</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>ZOES13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73">
+        <v>44.202917293233</v>
+      </c>
+      <c r="F73">
+        <v>274794.48037180502</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1983</v>
+      </c>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTS10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74">
+        <v>44.628533834586399</v>
+      </c>
+      <c r="F74">
+        <v>278855.37502744398</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1982</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>ZTO10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>45.054150375939798</v>
+      </c>
+      <c r="F75">
+        <v>282916.269683083</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1982</v>
+      </c>
+      <c r="H75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f t="shared" ref="A76:A110" si="2">C76</f>
+        <v>ZBK14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>45.479766917293198</v>
+      </c>
+      <c r="F76">
+        <v>286977.16433872201</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1981</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77">
+        <v>45.905383458646703</v>
+      </c>
+      <c r="F77">
+        <v>291038.05899436102</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1981</v>
+      </c>
+      <c r="H77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTS11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>46.331000000000103</v>
+      </c>
+      <c r="F78">
+        <v>295098.95364999998</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1981</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTO11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>46.756616541353502</v>
+      </c>
+      <c r="F79">
+        <v>299159.84830563999</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1980</v>
+      </c>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80">
+        <v>47.182233082706801</v>
+      </c>
+      <c r="F80">
+        <v>303220.742961279</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1980</v>
+      </c>
+      <c r="H80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>47.607849624060201</v>
+      </c>
+      <c r="F81">
+        <v>307281.63761691801</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1979</v>
+      </c>
+      <c r="H81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f t="shared" si="2"/>
+        <v>XXII4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82">
+        <v>48.0334661654136</v>
+      </c>
+      <c r="F82">
+        <v>311342.53227255697</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1979</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f t="shared" si="2"/>
+        <v>FAX4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>48.4590827067669</v>
+      </c>
+      <c r="F83">
+        <v>315403.42692819599</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f t="shared" si="2"/>
+        <v>IAF4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>48.884699248120299</v>
+      </c>
+      <c r="F84">
+        <v>319464.321583835</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1978</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f t="shared" si="2"/>
+        <v>CH4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>49.310315789473698</v>
+      </c>
+      <c r="F85">
+        <v>323525.21623947402</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1977</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f t="shared" si="2"/>
+        <v>ABE4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>49.735932330826998</v>
+      </c>
+      <c r="F86">
+        <v>327586.11089511297</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1977</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f t="shared" si="2"/>
+        <v>ZB^H4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>50.161548872180397</v>
+      </c>
+      <c r="F87">
+        <v>331647.00555075199</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1976</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>50.587165413533803</v>
+      </c>
+      <c r="F88">
+        <v>335707.900206391</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1976</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89">
+        <v>51.012781954887302</v>
+      </c>
+      <c r="F89">
+        <v>339768.79486203101</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1975</v>
+      </c>
+      <c r="H89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTS12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90">
+        <v>51.438398496240701</v>
+      </c>
+      <c r="F90">
+        <v>343829.68951767002</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1975</v>
+      </c>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTO12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91">
+        <v>51.8640150375941</v>
+      </c>
+      <c r="F91">
+        <v>347890.58417330898</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1975</v>
+      </c>
+      <c r="H91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <v>52.2896315789474</v>
+      </c>
+      <c r="F92">
+        <v>351951.47882894799</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1974</v>
+      </c>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93">
+        <v>52.7152481203007</v>
+      </c>
+      <c r="F93">
+        <v>356012.37348458701</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1974</v>
+      </c>
+      <c r="H93" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTS13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>53.140864661654099</v>
+      </c>
+      <c r="F94">
+        <v>360073.26814022602</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1973</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTO13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95">
+        <v>53.566481203007498</v>
+      </c>
+      <c r="F95">
+        <v>364134.16279586498</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1973</v>
+      </c>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96">
+        <v>53.992097744360898</v>
+      </c>
+      <c r="F96">
+        <v>368195.05745150399</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1972</v>
+      </c>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97">
+        <v>54.417714285714297</v>
+      </c>
+      <c r="F97">
+        <v>372255.95210714301</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1972</v>
+      </c>
+      <c r="H97" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTS14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>54.843330827067597</v>
+      </c>
+      <c r="F98">
+        <v>376316.84676278202</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1971</v>
+      </c>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTO14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>55.268947368421102</v>
+      </c>
+      <c r="F99">
+        <v>380377.74141842203</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1971</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100">
+        <v>55.694563909774502</v>
+      </c>
+      <c r="F100">
+        <v>384438.63607406098</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1970</v>
+      </c>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>56.120180451127901</v>
+      </c>
+      <c r="F101">
+        <v>388499.5307297</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1970</v>
+      </c>
+      <c r="H101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f t="shared" si="2"/>
+        <v>XXII5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102">
+        <v>56.5457969924813</v>
+      </c>
+      <c r="F102">
+        <v>392560.42538533901</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1970</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f t="shared" si="2"/>
+        <v>FAX5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>56.9714135338346</v>
+      </c>
+      <c r="F103">
+        <v>396621.32004097803</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1969</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f t="shared" si="2"/>
+        <v>IAF5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>57.397030075187899</v>
+      </c>
+      <c r="F104">
+        <v>400682.21469661698</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1969</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f t="shared" si="2"/>
+        <v>CH5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105">
+        <v>57.822646616541299</v>
+      </c>
+      <c r="F105">
+        <v>404743.109352256</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1968</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f t="shared" si="2"/>
+        <v>ABE5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106">
+        <v>58.248263157894698</v>
+      </c>
+      <c r="F106">
+        <v>408804.00400789501</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1968</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f t="shared" si="2"/>
+        <v>ZB^H5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107">
+        <v>58.673879699248097</v>
+      </c>
+      <c r="F107">
+        <v>412864.89866353403</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1967</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f t="shared" si="2"/>
+        <v>ZBK20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108">
+        <v>59.099496240601503</v>
+      </c>
+      <c r="F108">
+        <v>416925.79331917298</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1967</v>
+      </c>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f t="shared" si="2"/>
+        <v>ZOES20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109">
+        <v>59.525112781955002</v>
+      </c>
+      <c r="F109">
+        <v>420986.68797481299</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1966</v>
+      </c>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f t="shared" si="2"/>
+        <v>ZTS15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110">
+        <v>59.950729323308302</v>
+      </c>
+      <c r="F110">
+        <v>425047.582630452</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1966</v>
+      </c>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>